--- a/Logbook/Logbook_Melina_171524017.xlsx
+++ b/Logbook/Logbook_Melina_171524017.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Proyek1_Kosqu\Logbook\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D1260B6-E329-45B3-A7EA-F1D353D1BA41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Hari/tanggal</t>
   </si>
@@ -94,13 +100,31 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Selasa, 24 April 2018</t>
+  </si>
+  <si>
+    <t>Selasa, 17 April 2018</t>
+  </si>
+  <si>
+    <t>Mengolah bentukan data yang akan di tampilkan di aplikasi</t>
+  </si>
+  <si>
+    <t>Tidak mengetahui cara mengolah data di excle</t>
+  </si>
+  <si>
+    <t>Mencari tutorial dan mencari referensi kepada teman</t>
+  </si>
+  <si>
+    <t>Diskusi mockup yang akan ditampilkan di aplikasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,10 +160,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -147,6 +171,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -193,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +257,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +309,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,24 +502,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="27" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,136 +537,164 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -610,24 +706,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logbook/Logbook_Melina_171524017.xlsx
+++ b/Logbook/Logbook_Melina_171524017.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Proyek1_Kosqu\Logbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2D1260B6-E329-45B3-A7EA-F1D353D1BA41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB529143-2EEA-4404-B298-D7F1735C1E2F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="15315" windowHeight="5445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Hari/tanggal</t>
   </si>
@@ -118,6 +118,69 @@
   </si>
   <si>
     <t>Diskusi mockup yang akan ditampilkan di aplikasi</t>
+  </si>
+  <si>
+    <t>Sabtu, 5 Mei 2018</t>
+  </si>
+  <si>
+    <t>Menambah data kost</t>
+  </si>
+  <si>
+    <t>Sabtu, 12 Mei 2018</t>
+  </si>
+  <si>
+    <t>Minggu, 13 Mei 2018</t>
+  </si>
+  <si>
+    <t>Senin, 14 Mei 2018</t>
+  </si>
+  <si>
+    <t>Selasa,15 Mei 2018</t>
+  </si>
+  <si>
+    <t>Rabu, 16 Mei 2018</t>
+  </si>
+  <si>
+    <t>Kamis, 17 Mei 2018</t>
+  </si>
+  <si>
+    <t>Waktu</t>
+  </si>
+  <si>
+    <t>08.00-14.00</t>
+  </si>
+  <si>
+    <t>09.00-12.00</t>
+  </si>
+  <si>
+    <t>08.00-12.00</t>
+  </si>
+  <si>
+    <t>06.00-09.00</t>
+  </si>
+  <si>
+    <t>17.00-20.00</t>
+  </si>
+  <si>
+    <t>18.00-19.00</t>
+  </si>
+  <si>
+    <t>Sulit mengatur bentukan data</t>
+  </si>
+  <si>
+    <t>Diskusi dan mencari referensi internet</t>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+  </si>
+  <si>
+    <t>07.00-12.00</t>
+  </si>
+  <si>
+    <t>10.00-12.00</t>
+  </si>
+  <si>
+    <t>21.30-23.00</t>
   </si>
 </sst>
 </file>
@@ -154,13 +217,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,198 +569,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
